--- a/results/hindcast_models.xlsx
+++ b/results/hindcast_models.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\Bering_LarvalForecast\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08777D18-F2FF-4D8B-B928-E9E6896DCD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MSE Comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Full set of models" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,624 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+  <si>
+    <t>Here we are looking to see if the base model has higher error. That model doesn't include a varying coefficient term</t>
+  </si>
+  <si>
+    <t>Phenology</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Pollock larvae</t>
+  </si>
+  <si>
+    <t>Pollock eggs</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(J, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <t>Deviance Explained</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>Flathead Sole Eggs</t>
+  </si>
+  <si>
+    <t>Pollock Larvae</t>
+  </si>
+  <si>
+    <t>Pollock Eggs</t>
+  </si>
+  <si>
+    <t>Flathead Sole Larvae</t>
+  </si>
+  <si>
+    <t>Yellowfin Sole Larvae</t>
+  </si>
+  <si>
+    <t>Alaska Plaice Eggs</t>
+  </si>
+  <si>
+    <t>Alaska Plaice Larvae</t>
+  </si>
+  <si>
+    <t>Northern Rock Sole Larvae</t>
+  </si>
+  <si>
+    <t>Pacific Cod Larvae</t>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(J, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +650,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,13 +717,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +812,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFBCFAD2-4F31-47F6-BFBD-8ECE8625934B}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D37" xr:uid="{EFBCFAD2-4F31-47F6-BFBD-8ECE8625934B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F9F50431-2022-48E3-9BE2-00BBB439FB32}" name="Species"/>
+    <tableColumn id="2" xr3:uid="{4A195E8D-DDAB-45F0-BEA1-41466352D14A}" name="Model" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2AB11AAC-C888-46CE-9E8C-C3758C42AFAE}" name="Deviance Explained" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C87B66BD-FF99-40D8-95E8-5BD7734CC800}" name="AIC" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1094,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="3" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.11</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.22</v>
+      </c>
+      <c r="C5">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85362540-AC5F-4C2A-96D6-CE4627EBF886}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="78.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>33362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.498</v>
+      </c>
+      <c r="D3" s="9">
+        <v>33034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="D4" s="9">
+        <v>32884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>32829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D6" s="16">
+        <v>30565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.498</v>
+      </c>
+      <c r="D7" s="16">
+        <v>29891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.52</v>
+      </c>
+      <c r="D8" s="16">
+        <v>29626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D9" s="16">
+        <v>29595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A15" s="17"/>
+      <c r="B15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/results/hindcast_models.xlsx
+++ b/results/hindcast_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\Bering_LarvalForecast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08777D18-F2FF-4D8B-B928-E9E6896DCD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD447C7-C05A-4ACC-ADF4-873A406F61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Here we are looking to see if the base model has higher error. That model doesn't include a varying coefficient term</t>
   </si>
@@ -190,6 +190,39 @@
     </r>
   </si>
   <si>
+    <t>Deviance Explained</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>Flathead Sole Eggs</t>
+  </si>
+  <si>
+    <t>Pollock Larvae</t>
+  </si>
+  <si>
+    <t>Pollock Eggs</t>
+  </si>
+  <si>
+    <t>Flathead Sole Larvae</t>
+  </si>
+  <si>
+    <t>Yellowfin Sole Larvae</t>
+  </si>
+  <si>
+    <t>Alaska Plaice Eggs</t>
+  </si>
+  <si>
+    <t>Alaska Plaice Larvae</t>
+  </si>
+  <si>
+    <t>Northern Rock Sole Larvae</t>
+  </si>
+  <si>
+    <t>Pacific Cod Larvae</t>
+  </si>
+  <si>
     <r>
       <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
     </r>
@@ -210,6 +243,77 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>) + s(SST</t>
     </r>
     <r>
@@ -248,51 +352,96 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>) + s(lat, lon, by = T) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-  </si>
-  <si>
-    <t>Deviance Explained</t>
-  </si>
-  <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>Flathead Sole Eggs</t>
-  </si>
-  <si>
-    <t>Pollock Larvae</t>
-  </si>
-  <si>
-    <t>Pollock Eggs</t>
-  </si>
-  <si>
-    <t>Flathead Sole Larvae</t>
-  </si>
-  <si>
-    <t>Yellowfin Sole Larvae</t>
-  </si>
-  <si>
-    <t>Alaska Plaice Eggs</t>
-  </si>
-  <si>
-    <t>Alaska Plaice Larvae</t>
-  </si>
-  <si>
-    <t>Northern Rock Sole Larvae</t>
-  </si>
-  <si>
-    <t>Pacific Cod Larvae</t>
+      <t>) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(J, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <t>Flathead eggs</t>
+  </si>
+  <si>
+    <t>Flathead larvae</t>
   </si>
   <si>
     <r>
@@ -315,21 +464,56 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-  </si>
-  <si>
-    <t>Species</t>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + te(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
   </si>
   <si>
     <r>
@@ -352,7 +536,26 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>) + ɛ</t>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSSlat,lon) + te(lat, lon, by = T) + ɛ</t>
     </r>
     <r>
       <rPr>
@@ -371,16 +574,18 @@
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -390,16 +595,76 @@
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + te(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -409,50 +674,55 @@
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + te(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -462,16 +732,18 @@
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -481,158 +753,51 @@
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(J, by = T) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(SST</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(SSS</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(lat, lon, by = T) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(SST</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(lat, lon, by = T) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + te(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <t>Yellowfin larvae</t>
+  </si>
+  <si>
+    <t>Alaska plaice eggs</t>
+  </si>
+  <si>
+    <t>Alaska plaice larvae</t>
+  </si>
+  <si>
+    <t>N. Rock sole larvae</t>
+  </si>
+  <si>
+    <t>Cod larvae</t>
   </si>
 </sst>
 </file>
@@ -640,9 +805,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +838,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -717,40 +890,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,24 +928,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -800,6 +973,14 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,8 +996,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFBCFAD2-4F31-47F6-BFBD-8ECE8625934B}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D37" xr:uid="{EFBCFAD2-4F31-47F6-BFBD-8ECE8625934B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFBCFAD2-4F31-47F6-BFBD-8ECE8625934B}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D38" xr:uid="{EFBCFAD2-4F31-47F6-BFBD-8ECE8625934B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -824,9 +1005,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F9F50431-2022-48E3-9BE2-00BBB439FB32}" name="Species"/>
-    <tableColumn id="2" xr3:uid="{4A195E8D-DDAB-45F0-BEA1-41466352D14A}" name="Model" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2AB11AAC-C888-46CE-9E8C-C3758C42AFAE}" name="Deviance Explained" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C87B66BD-FF99-40D8-95E8-5BD7734CC800}" name="AIC" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4A195E8D-DDAB-45F0-BEA1-41466352D14A}" name="Model" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2AB11AAC-C888-46CE-9E8C-C3758C42AFAE}" name="Deviance Explained" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C87B66BD-FF99-40D8-95E8-5BD7734CC800}" name="AIC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1095,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,10 +1305,10 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.11</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="20">
         <v>0.12</v>
       </c>
     </row>
@@ -1135,12 +1316,105 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.22</v>
-      </c>
-      <c r="C5">
-        <v>0.23</v>
-      </c>
+      <c r="B5" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0.11</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85362540-AC5F-4C2A-96D6-CE4627EBF886}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,25 +1437,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5">
         <v>0.44700000000000001</v>
@@ -1193,338 +1467,411 @@
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.498</v>
-      </c>
-      <c r="D3" s="9">
-        <v>33034</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D3" s="6">
+        <v>33076</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.52</v>
-      </c>
-      <c r="D4" s="9">
-        <v>32884</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>32944</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="D5" s="9">
-        <v>32829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="15">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>32833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D6" s="22">
+        <v>32831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11">
         <v>0.27100000000000002</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D7" s="12">
         <v>30565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.498</v>
-      </c>
-      <c r="D7" s="16">
-        <v>29891</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.52</v>
-      </c>
-      <c r="D8" s="16">
-        <v>29626</v>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D8" s="12">
+        <v>29968</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D9" s="16">
-        <v>29595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D9" s="12">
+        <v>29690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="D10" s="24">
+        <v>29677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>14955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="5">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>14769</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>14717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.501</v>
+      </c>
+      <c r="D14" s="22">
+        <v>14676</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D15" s="12">
+        <v>11035</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="C17" s="11">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D17" s="12">
+        <v>9964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D18" s="24">
+        <v>9740</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A19" s="7"/>
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10342</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D22" s="22">
+        <v>10071</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15529</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D24" s="12">
+        <v>14517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="C25" s="11">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D25" s="12">
+        <v>14417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D26" s="24">
+        <v>14183</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A27" s="7"/>
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.629</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
@@ -1537,6 +1884,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/hindcast_models.xlsx
+++ b/results/hindcast_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\Bering_LarvalForecast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD447C7-C05A-4ACC-ADF4-873A406F61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDE7897-995F-4B64-9BB4-19442B5F8F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE Comparison" sheetId="1" r:id="rId1"/>
@@ -521,16 +521,18 @@
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -540,25 +542,28 @@
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(SSSlat,lon) + te(lat, lon, by = T) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + te(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -612,6 +617,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>) + te(lat, lon, by = T) + ɛ</t>
     </r>
     <r>
@@ -628,22 +654,114 @@
   </si>
   <si>
     <r>
+      <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + te(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <t>Yellowfin larvae</t>
+  </si>
+  <si>
+    <t>Alaska plaice eggs</t>
+  </si>
+  <si>
+    <t>Alaska plaice larvae</t>
+  </si>
+  <si>
+    <t>N. Rock sole larvae</t>
+  </si>
+  <si>
+    <t>Cod larvae</t>
+  </si>
+  <si>
+    <r>
       <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -653,18 +771,16 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -674,18 +790,16 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -695,109 +809,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(SST</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + s(SSS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + te(lat, lon, by = T) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-  </si>
-  <si>
-    <t>Yellowfin larvae</t>
-  </si>
-  <si>
-    <t>Alaska plaice eggs</t>
-  </si>
-  <si>
-    <t>Alaska plaice larvae</t>
-  </si>
-  <si>
-    <t>N. Rock sole larvae</t>
-  </si>
-  <si>
-    <t>Cod larvae</t>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1278,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1347,7 +1366,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="20">
         <v>0.11</v>
@@ -1358,7 +1377,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="20">
         <v>0.3</v>
@@ -1369,21 +1388,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1425,14 +1444,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85362540-AC5F-4C2A-96D6-CE4627EBF886}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="78.453125" customWidth="1"/>
+    <col min="2" max="2" width="87.453125" customWidth="1"/>
     <col min="3" max="3" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1457,60 +1476,40 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D2" s="6">
-        <v>33362</v>
-      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="D3" s="6">
-        <v>33076</v>
-      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="D4" s="6">
-        <v>32944</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="D5" s="6">
-        <v>32833</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="D6" s="22">
-        <v>32831</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
@@ -1519,48 +1518,32 @@
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="D7" s="12">
-        <v>30565</v>
-      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D8" s="12">
-        <v>29968</v>
-      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="D9" s="12">
-        <v>29690</v>
-      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="D10" s="24">
-        <v>29677</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
@@ -1569,48 +1552,32 @@
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="D11" s="6">
-        <v>14955</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D12" s="6">
-        <v>14769</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D13" s="6">
-        <v>14717</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.501</v>
-      </c>
-      <c r="D14" s="22">
-        <v>14676</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
@@ -1619,48 +1586,32 @@
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D15" s="12">
-        <v>11035</v>
-      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11">
-        <v>0.61</v>
-      </c>
-      <c r="D16" s="12">
-        <v>10208</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="D17" s="12">
-        <v>9964</v>
-      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="23">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D18" s="24">
-        <v>9740</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
@@ -1669,48 +1620,32 @@
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10451</v>
-      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D20" s="6">
-        <v>10342</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D21" s="6">
-        <v>10218</v>
-      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="D22" s="22">
-        <v>10071</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
@@ -1719,48 +1654,32 @@
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11">
-        <v>0.49</v>
-      </c>
-      <c r="D23" s="12">
-        <v>15529</v>
-      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="11">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="D24" s="12">
-        <v>14517</v>
-      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="11">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="D25" s="12">
-        <v>14417</v>
-      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="23">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D26" s="24">
-        <v>14183</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
@@ -1769,12 +1688,8 @@
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5">
-        <v>0.629</v>
-      </c>
-      <c r="D27" s="6">
-        <v>7474</v>
-      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>

--- a/results/hindcast_models.xlsx
+++ b/results/hindcast_models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\Bering_LarvalForecast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDE7897-995F-4B64-9BB4-19442B5F8F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B4ABE-93AD-46EA-B0E0-BD33F4A5DFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE Comparison" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Here we are looking to see if the base model has higher error. That model doesn't include a varying coefficient term</t>
   </si>
@@ -786,29 +786,89 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>) + te(lat, lon, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(SST</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>) + s(SSS</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lat,lon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) + te(lat, lon, by = T) + ɛ</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lat,lon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + s(J, by = T) + ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -871,7 +931,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,6 +956,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -909,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -934,7 +1000,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,6 +1026,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,54 +1416,54 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.12</v>
+      <c r="B4" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.21</v>
+      <c r="B5" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>0.09</v>
       </c>
-      <c r="C6" s="20">
-        <v>0.11</v>
+      <c r="C6" s="19">
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="20">
-        <v>0.35</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0.41</v>
+      <c r="B7" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>0.11</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>0.18</v>
       </c>
     </row>
@@ -1379,10 +1471,10 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B9" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C9" s="19">
         <v>0.35</v>
       </c>
     </row>
@@ -1390,50 +1482,62 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85362540-AC5F-4C2A-96D6-CE4627EBF886}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1456,16 +1560,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1476,40 +1580,60 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="5">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D2" s="6">
+        <v>33301</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="5">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D3" s="6">
+        <v>33128</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="C4" s="5">
+        <v>0.502</v>
+      </c>
+      <c r="D4" s="6">
+        <v>33009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D5" s="6">
+        <v>32825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="24">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D6" s="25">
+        <v>32829</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
@@ -1518,32 +1642,48 @@
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="11">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D7" s="12">
+        <v>30602</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="11">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D8" s="12">
+        <v>29857</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="18">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D9" s="12">
+        <v>29569</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="22">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D10" s="23">
+        <v>29457</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
@@ -1552,32 +1692,48 @@
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="5">
+        <v>0.436</v>
+      </c>
+      <c r="D11" s="6">
+        <v>14919</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="5">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>14765</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>14709</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="20">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D14" s="21">
+        <v>14603</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
@@ -1586,32 +1742,48 @@
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="11">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D15" s="12">
+        <v>11038</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="11">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10223</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="11">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D17" s="12">
+        <v>9978</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="D18" s="23">
+        <v>9778</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
@@ -1620,32 +1792,48 @@
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="5">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10360</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="5">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10291</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="5">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10141</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="20">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D22" s="21">
+        <v>10002</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
@@ -1654,32 +1842,48 @@
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="11">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15412</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="11">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D24" s="12">
+        <v>14441</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="11">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="D25" s="12">
+        <v>14353</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="22">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D26" s="23">
+        <v>14092</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
@@ -1688,32 +1892,48 @@
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7441</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="5">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7064</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="C29" s="5">
+        <v>0.753</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D30" s="21">
+        <v>6655</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
@@ -1722,66 +1942,98 @@
       <c r="B31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="11">
+        <v>0.439</v>
+      </c>
+      <c r="D31" s="12">
+        <v>15812</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
       <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="D32" s="12">
+        <v>15558</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="C33" s="11">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D33" s="12">
+        <v>15443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.4">
       <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D34" s="23">
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A35" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="28">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D35" s="29">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A36" s="30"/>
+      <c r="B36" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="28">
+        <v>51.5</v>
+      </c>
+      <c r="D36" s="29">
+        <v>8883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A37" s="27"/>
+      <c r="B37" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="33">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D37" s="34">
+        <v>8685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
+      <c r="C38" s="32">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D38" s="31">
+        <v>8704</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>

--- a/results/hindcast_models.xlsx
+++ b/results/hindcast_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\Bering_LarvalForecast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B4ABE-93AD-46EA-B0E0-BD33F4A5DFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE88568-6F68-47C4-B2F1-21E7F226B3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE Comparison" sheetId="1" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85362540-AC5F-4C2A-96D6-CE4627EBF886}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="B34:D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1616,10 +1616,10 @@
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="20">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="21">
         <v>32825</v>
       </c>
     </row>

--- a/results/hindcast_models.xlsx
+++ b/results/hindcast_models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\Bering_LarvalForecast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE88568-6F68-47C4-B2F1-21E7F226B3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D0E4C-B389-4EAA-8117-514B35F7B37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE Comparison" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>Here we are looking to see if the base model has higher error. That model doesn't include a varying coefficient term</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Geography</t>
   </si>
   <si>
-    <t>Pollock larvae</t>
-  </si>
-  <si>
-    <t>Pollock eggs</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -438,12 +432,6 @@
     </r>
   </si>
   <si>
-    <t>Flathead eggs</t>
-  </si>
-  <si>
-    <t>Flathead larvae</t>
-  </si>
-  <si>
     <r>
       <t>ln(count) = re(y) + s(lat, lon) + s(J</t>
     </r>
@@ -732,21 +720,6 @@
     </r>
   </si>
   <si>
-    <t>Yellowfin larvae</t>
-  </si>
-  <si>
-    <t>Alaska plaice eggs</t>
-  </si>
-  <si>
-    <t>Alaska plaice larvae</t>
-  </si>
-  <si>
-    <t>N. Rock sole larvae</t>
-  </si>
-  <si>
-    <t>Cod larvae</t>
-  </si>
-  <si>
     <r>
       <t>ln(count) = re(y) + te(lat, lon) + s(J</t>
     </r>
@@ -877,6 +850,33 @@
       </rPr>
       <t>lat,lon</t>
     </r>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Walleye Pollock</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Larvae</t>
+  </si>
+  <si>
+    <t>Flathead Sole</t>
+  </si>
+  <si>
+    <t>Alaska Plaice</t>
+  </si>
+  <si>
+    <t>Yellowfin Sole</t>
+  </si>
+  <si>
+    <t>Northern Rock Sole</t>
+  </si>
+  <si>
+    <t>Pacific Cod</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,6 +930,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -963,7 +969,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -971,15 +977,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1028,12 +1067,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1055,6 +1088,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,6 +1160,1142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MSE Comparison'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phenology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'MSE Comparison'!$A$4:$B$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Eggs</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Eggs</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Eggs</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Walleye Pollock</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Flathead Sole</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Alaska Plaice</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Yellowfin Sole</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Northern Rock Sole</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Pacific Cod</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MSE Comparison'!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFD6-4187-8249-BEB61213461B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MSE Comparison'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Geography</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'MSE Comparison'!$A$4:$B$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Eggs</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Eggs</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Eggs</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Larvae</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Walleye Pollock</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Flathead Sole</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Alaska Plaice</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Yellowfin Sole</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Northern Rock Sole</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Pacific Cod</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MSE Comparison'!$D$4:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFD6-4187-8249-BEB61213461B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1426020831"/>
+        <c:axId val="863402911"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1426020831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863402911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863402911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1426020831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FA5055-3370-F275-13C4-2DEDB2747DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1399,148 +2591,183 @@
     <col min="2" max="3" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="37"/>
+      <c r="B7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.19</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="37"/>
+      <c r="B9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="D11" s="33">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="33">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.09</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.11</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0.11</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.12</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="D12" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1548,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85362540-AC5F-4C2A-96D6-CE4627EBF886}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1560,501 +2787,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C3" s="4">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D3" s="5">
+        <v>33128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.502</v>
+      </c>
+      <c r="D4" s="5">
+        <v>33009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D5" s="20">
+        <v>32825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D6" s="5">
+        <v>32829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <v>30602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D8" s="11">
+        <v>29857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D9" s="11">
+        <v>29569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D10" s="22">
+        <v>29457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.436</v>
+      </c>
+      <c r="D11" s="5">
+        <v>14919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D12" s="5">
+        <v>14765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>14709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D14" s="20">
+        <v>14603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D15" s="11">
+        <v>11038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D16" s="11">
+        <v>10223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="C17" s="10">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D17" s="11">
+        <v>9978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.69</v>
+      </c>
+      <c r="D18" s="22">
+        <v>9778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D2" s="6">
-        <v>33301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D20" s="5">
+        <v>10291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D22" s="20">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D23" s="11">
+        <v>15412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D24" s="11">
+        <v>14441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="D25" s="11">
+        <v>14353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D26" s="22">
+        <v>14092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.753</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D30" s="20">
+        <v>6655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.439</v>
+      </c>
+      <c r="D31" s="11">
+        <v>15812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A32" s="12"/>
+      <c r="B32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="D32" s="11">
+        <v>15558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D33" s="11">
+        <v>15443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D34" s="22">
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A35" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D35" s="26">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A36" s="27"/>
+      <c r="B36" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="25">
+        <v>51.5</v>
+      </c>
+      <c r="D36" s="26">
+        <v>8883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A37" s="24"/>
+      <c r="B37" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D37" s="31">
+        <v>8685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D3" s="6">
-        <v>33128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.502</v>
-      </c>
-      <c r="D4" s="6">
-        <v>33009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D5" s="21">
-        <v>32825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D6" s="25">
-        <v>32829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="D7" s="12">
-        <v>30602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D8" s="12">
-        <v>29857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="D9" s="12">
-        <v>29569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D10" s="23">
-        <v>29457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.436</v>
-      </c>
-      <c r="D11" s="6">
-        <v>14919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D12" s="6">
-        <v>14765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D13" s="6">
-        <v>14709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D14" s="21">
-        <v>14603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D15" s="12">
-        <v>11038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="D16" s="12">
-        <v>10223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="D17" s="12">
-        <v>9978</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="22">
-        <v>0.69</v>
-      </c>
-      <c r="D18" s="23">
-        <v>9778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D20" s="6">
-        <v>10291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="D21" s="6">
-        <v>10141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="D22" s="21">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="D23" s="12">
-        <v>15412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="D24" s="12">
-        <v>14441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="D25" s="12">
-        <v>14353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="22">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D26" s="23">
-        <v>14092</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="D27" s="6">
-        <v>7441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="D28" s="6">
-        <v>7064</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.753</v>
-      </c>
-      <c r="D29" s="6">
-        <v>6721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="D30" s="21">
-        <v>6655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="11">
-        <v>0.439</v>
-      </c>
-      <c r="D31" s="12">
-        <v>15812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A32" s="13"/>
-      <c r="B32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0.49</v>
-      </c>
-      <c r="D32" s="12">
-        <v>15558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="11">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="D33" s="12">
-        <v>15443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="22">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="D34" s="23">
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A35" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="28">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D35" s="29">
-        <v>9004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A36" s="30"/>
-      <c r="B36" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="28">
-        <v>51.5</v>
-      </c>
-      <c r="D36" s="29">
-        <v>8883</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.4">
-      <c r="A37" s="27"/>
-      <c r="B37" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="33">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="D37" s="34">
-        <v>8685</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="32">
+      <c r="C38" s="29">
         <v>0.55900000000000005</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="28">
         <v>8704</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/hindcast_models.xlsx
+++ b/results/hindcast_models.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\Bering_LarvalForecast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D0E4C-B389-4EAA-8117-514B35F7B37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBDDD0D-CA71-47BC-A032-858147FB4026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE Comparison" sheetId="1" r:id="rId1"/>
     <sheet name="Full set of models" sheetId="2" r:id="rId2"/>
+    <sheet name="CV Spearman" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>Here we are looking to see if the base model has higher error. That model doesn't include a varying coefficient term</t>
   </si>
@@ -877,6 +878,12 @@
   </si>
   <si>
     <t>Pacific Cod</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Static</t>
   </si>
 </sst>
 </file>
@@ -937,7 +944,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,6 +972,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1109,8 +1128,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2582,7 +2608,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11:U12"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2731,10 +2757,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="18"/>
@@ -3290,4 +3314,223 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A8A3D4-B0FD-4358-8E9F-802DFE38F62A}">
+  <dimension ref="B3:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="6" max="7" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.39</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0.38</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="37"/>
+      <c r="C5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.35</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.47</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.44</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.46</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="37"/>
+      <c r="C7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.48</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.52</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="39">
+        <v>0.39</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.64</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0.66</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="37"/>
+      <c r="C9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0.36</v>
+      </c>
+      <c r="F9" s="41">
+        <v>0.49</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.54</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0.66</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0.37</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.46</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.32</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="41">
+        <v>0.31</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>